--- a/Live_Selenium_1/Day3.xlsx
+++ b/Live_Selenium_1/Day3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>UserId</t>
   </si>
@@ -19,16 +19,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>mngr586608</t>
+    <t>valid</t>
   </si>
   <si>
-    <t>yqUnuje</t>
-  </si>
-  <si>
-    <t>mngr58081</t>
-  </si>
-  <si>
-    <t>yqUnuje1</t>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -298,15 +292,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -314,15 +308,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
